--- a/Industry/201612-201908/HKD/MILLION/Analysis_66_15 - Leather Consumer Goods_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_66_15 - Leather Consumer Goods_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="768" yWindow="768"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -25817,6 +25818,653 @@
     <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
     <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
     <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="9"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" t="n">
+        <v>30273.954</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28915.554</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-4.487</v>
+      </c>
+      <c r="E2" t="n">
+        <v>18780.822</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28424.166</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.699</v>
+      </c>
+      <c r="H2" t="n">
+        <v>19489.755</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.775</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" t="n">
+        <v>12617.466</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13535.297</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.274</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9463.736000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14417.736</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10249.107</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8.298999999999999</v>
+      </c>
+      <c r="J3" t="n">
+        <v>41.678</v>
+      </c>
+      <c r="K3" t="n">
+        <v>46.81</v>
+      </c>
+      <c r="L3" t="n">
+        <v>50.39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>50.724</v>
+      </c>
+      <c r="N3" t="n">
+        <v>52.587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" t="n">
+        <v>13569.083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11565.559</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-14.765</v>
+      </c>
+      <c r="E4" t="n">
+        <v>6706.481</v>
+      </c>
+      <c r="F4" t="n">
+        <v>10005.928</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-13.485</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6623.711</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-1.234</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.821</v>
+      </c>
+      <c r="K4" t="n">
+        <v>39.998</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35.709</v>
+      </c>
+      <c r="M4" t="n">
+        <v>35.202</v>
+      </c>
+      <c r="N4" t="n">
+        <v>33.986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1553.79</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1601.638</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="E5" t="n">
+        <v>957.968</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1412.214</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-11.827</v>
+      </c>
+      <c r="H5" t="n">
+        <v>925.384</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-3.401</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.132</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.539</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.101</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4.968</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6" t="n">
+        <v>191.047</v>
+      </c>
+      <c r="C6" t="n">
+        <v>162.489</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-14.948</v>
+      </c>
+      <c r="E6" t="n">
+        <v>319.538</v>
+      </c>
+      <c r="F6" t="n">
+        <v>541.726</v>
+      </c>
+      <c r="G6" t="n">
+        <v>233.392</v>
+      </c>
+      <c r="H6" t="n">
+        <v>565.577</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76.998</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.631</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.701</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1060.447</v>
+      </c>
+      <c r="C7" t="n">
+        <v>934.524</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-11.875</v>
+      </c>
+      <c r="E7" t="n">
+        <v>591.799</v>
+      </c>
+      <c r="F7" t="n">
+        <v>884.129</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-5.392</v>
+      </c>
+      <c r="H7" t="n">
+        <v>423.116</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-28.503</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.503</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.232</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" t="n">
+        <v>589.4400000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>552.463</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-6.273</v>
+      </c>
+      <c r="E8" t="n">
+        <v>328.686</v>
+      </c>
+      <c r="F8" t="n">
+        <v>517.373</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-6.352</v>
+      </c>
+      <c r="H8" t="n">
+        <v>274.619</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-16.45</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.947</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.911</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" t="n">
+        <v>367.397</v>
+      </c>
+      <c r="C9" t="n">
+        <v>251.743</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-31.479</v>
+      </c>
+      <c r="E9" t="n">
+        <v>172.848</v>
+      </c>
+      <c r="F9" t="n">
+        <v>263.525</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="H9" t="n">
+        <v>179.719</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.975</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B10" t="n">
+        <v>216.358</v>
+      </c>
+      <c r="C10" t="n">
+        <v>256.191</v>
+      </c>
+      <c r="D10" t="n">
+        <v>18.411</v>
+      </c>
+      <c r="E10" t="n">
+        <v>195.432</v>
+      </c>
+      <c r="F10" t="n">
+        <v>302.755</v>
+      </c>
+      <c r="G10" t="n">
+        <v>18.175</v>
+      </c>
+      <c r="H10" t="n">
+        <v>159.45</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-18.412</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.886</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.8179999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4.907</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5.432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.704</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.194</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-22.783</v>
+      </c>
+      <c r="H11" t="n">
+        <v>51.111</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1246.592</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.019</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B12" t="n">
+        <v>52.656</v>
+      </c>
+      <c r="C12" t="n">
+        <v>46.095</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-12.459</v>
+      </c>
+      <c r="E12" t="n">
+        <v>36.477</v>
+      </c>
+      <c r="F12" t="n">
+        <v>56.87</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23.375</v>
+      </c>
+      <c r="H12" t="n">
+        <v>36.727</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.6860000000000001</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.947</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-68.453</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.308</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-67.46899999999999</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I13" t="n">
+        <v>159.773</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B14" t="n">
+        <v>48.359</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.175</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-93.434</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.776</v>
+      </c>
+      <c r="F14" t="n">
+        <v>17.407</v>
+      </c>
+      <c r="G14" t="n">
+        <v>448.225</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-86.86499999999999</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
     <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
   </cols>
   <sheetData>
